--- a/freq_edge/전자edge.xlsx
+++ b/freq_edge/전자edge.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seoultechackr-my.sharepoint.com/personal/14126813_seoultech_ac_kr/Documents/바탕 화면/대학원/project/new_year_speech/new_year_speech/freq_edge/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_B20ADED897D9AEBF8D7D93CE52696B6F61B48590" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC092812-8FBF-4D12-AF26-99DC48AC2167}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
-  <si>
-    <t>산업군</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="164">
   <si>
     <t>전자</t>
   </si>
@@ -113,26 +113,429 @@
   </si>
   <si>
     <t>환경</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>서비스</t>
+  </si>
+  <si>
+    <t>중심</t>
+  </si>
+  <si>
+    <t>적극</t>
+  </si>
+  <si>
+    <t>방식</t>
+  </si>
+  <si>
+    <t>디지털</t>
+  </si>
+  <si>
+    <t>주도</t>
+  </si>
+  <si>
+    <t>실행</t>
+  </si>
+  <si>
+    <t>사업부</t>
+  </si>
+  <si>
+    <t>참여</t>
+  </si>
+  <si>
+    <t>전환</t>
+  </si>
+  <si>
+    <t>지속</t>
+  </si>
+  <si>
+    <t>전략</t>
+  </si>
+  <si>
+    <t>건설업</t>
+  </si>
+  <si>
+    <t>수주</t>
+  </si>
+  <si>
+    <t>노력</t>
+  </si>
+  <si>
+    <t>해외</t>
+  </si>
+  <si>
+    <t>관리</t>
+  </si>
+  <si>
+    <t>국내</t>
+  </si>
+  <si>
+    <t>건설</t>
+  </si>
+  <si>
+    <t>현장</t>
+  </si>
+  <si>
+    <t>프로젝트</t>
+  </si>
+  <si>
+    <t>안전</t>
+  </si>
+  <si>
+    <t>확대</t>
+  </si>
+  <si>
+    <t>발전</t>
+  </si>
+  <si>
+    <t>업무</t>
+  </si>
+  <si>
+    <t>금융업</t>
+  </si>
+  <si>
+    <t>금융</t>
+  </si>
+  <si>
+    <t>은행</t>
+  </si>
+  <si>
+    <t>글로벌</t>
+  </si>
+  <si>
+    <t>영업</t>
+  </si>
+  <si>
+    <t>플랫폼</t>
+  </si>
+  <si>
+    <t>생각</t>
+  </si>
+  <si>
+    <t>경쟁</t>
+  </si>
+  <si>
+    <t>바이오</t>
+  </si>
+  <si>
+    <t>신약</t>
+  </si>
+  <si>
+    <t>개발</t>
+  </si>
+  <si>
+    <t>목표</t>
+  </si>
+  <si>
+    <t>도약</t>
+  </si>
+  <si>
+    <t>비전</t>
+  </si>
+  <si>
+    <t>강국</t>
+  </si>
+  <si>
+    <t>임상</t>
+  </si>
+  <si>
+    <t>창조</t>
+  </si>
+  <si>
+    <t>달성</t>
+  </si>
+  <si>
+    <t>인재</t>
+  </si>
+  <si>
+    <t>내실</t>
+  </si>
+  <si>
+    <t>생활용품</t>
+  </si>
+  <si>
+    <t>화장품</t>
+  </si>
+  <si>
+    <t>고도</t>
+  </si>
+  <si>
+    <t>신뢰</t>
+  </si>
+  <si>
+    <t>리더</t>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>지금</t>
+  </si>
+  <si>
+    <t>위기</t>
+  </si>
+  <si>
+    <t>제조</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>시작</t>
+  </si>
+  <si>
+    <t>유통</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>기존</t>
+  </si>
+  <si>
+    <t>구조</t>
+  </si>
+  <si>
+    <t>기회</t>
+  </si>
+  <si>
+    <t>분야</t>
+  </si>
+  <si>
+    <t>경험</t>
+  </si>
+  <si>
+    <t>필요</t>
+  </si>
+  <si>
+    <t>자동차</t>
+  </si>
+  <si>
+    <t>산업</t>
+  </si>
+  <si>
+    <t>최선</t>
+  </si>
+  <si>
+    <t>세계</t>
+  </si>
+  <si>
+    <t>협력</t>
+  </si>
+  <si>
+    <t>판매</t>
+  </si>
+  <si>
+    <t>투자</t>
+  </si>
+  <si>
+    <t>정부기관</t>
+  </si>
+  <si>
+    <t>경제</t>
+  </si>
+  <si>
+    <t>정책</t>
+  </si>
+  <si>
+    <t>감독</t>
+  </si>
+  <si>
+    <t>안정</t>
+  </si>
+  <si>
+    <t>상황</t>
+  </si>
+  <si>
+    <t>통화</t>
+  </si>
+  <si>
+    <t>지원</t>
+  </si>
+  <si>
+    <t>리스크</t>
+  </si>
+  <si>
+    <t>소비자</t>
+  </si>
+  <si>
+    <t>위험</t>
+  </si>
+  <si>
+    <t>요인</t>
+  </si>
+  <si>
+    <t>시스템</t>
+  </si>
+  <si>
+    <t>여건</t>
+  </si>
+  <si>
+    <t>정유업</t>
+  </si>
+  <si>
+    <t>총괄</t>
+  </si>
+  <si>
+    <t>확장</t>
+  </si>
+  <si>
+    <t>계열</t>
+  </si>
+  <si>
+    <t>에너지</t>
+  </si>
+  <si>
+    <t>중공업</t>
+  </si>
+  <si>
+    <t>생산</t>
+  </si>
+  <si>
+    <t>원가</t>
+  </si>
+  <si>
+    <t>조선</t>
+  </si>
+  <si>
+    <t>극복</t>
+  </si>
+  <si>
+    <t>생존</t>
+  </si>
+  <si>
+    <t>선박</t>
+  </si>
+  <si>
+    <t>통신</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>시대</t>
+  </si>
+  <si>
+    <t>성공</t>
+  </si>
+  <si>
+    <t>보안</t>
+  </si>
+  <si>
+    <t>일등</t>
+  </si>
+  <si>
+    <t>항공업</t>
+  </si>
+  <si>
+    <t>대한민국</t>
+  </si>
+  <si>
+    <t>개선</t>
+  </si>
+  <si>
+    <t>운항</t>
+  </si>
+  <si>
+    <t>계획</t>
+  </si>
+  <si>
+    <t>의미</t>
+  </si>
+  <si>
+    <t>선수</t>
+  </si>
+  <si>
+    <t>도입</t>
+  </si>
+  <si>
+    <t>이야기</t>
+  </si>
+  <si>
+    <t>항공</t>
+  </si>
+  <si>
+    <t>진심</t>
+  </si>
+  <si>
+    <t>항공사</t>
+  </si>
+  <si>
+    <t>항공기</t>
+  </si>
+  <si>
+    <t>코로나</t>
+  </si>
+  <si>
+    <t>노선</t>
+  </si>
+  <si>
+    <t>화장품 제조업</t>
+  </si>
+  <si>
+    <t>뷰티</t>
+  </si>
+  <si>
+    <t>브랜드</t>
+  </si>
+  <si>
+    <t>연구</t>
+  </si>
+  <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>세상</t>
+  </si>
+  <si>
+    <t>법인</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undirected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,7 +547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -152,41 +555,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +653,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +705,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,355 +898,5912 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>16</v>
       </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>37</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>31</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>23</v>
+      </c>
+      <c r="D91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92">
+        <v>323</v>
+      </c>
+      <c r="D92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>253</v>
+      </c>
+      <c r="D93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94">
+        <v>175</v>
+      </c>
+      <c r="D94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95">
+        <v>133</v>
+      </c>
+      <c r="D95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>120</v>
+      </c>
+      <c r="D96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>99</v>
+      </c>
+      <c r="D97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>93</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99">
+        <v>90</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>84</v>
+      </c>
+      <c r="D100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>81</v>
+      </c>
+      <c r="D101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102">
+        <v>81</v>
+      </c>
+      <c r="D102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103">
+        <v>78</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>73</v>
+      </c>
+      <c r="D104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105">
+        <v>73</v>
+      </c>
+      <c r="D105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>66</v>
+      </c>
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107">
+        <v>61</v>
+      </c>
+      <c r="D107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>58</v>
+      </c>
+      <c r="D108" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>53</v>
+      </c>
+      <c r="D111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>52</v>
+      </c>
+      <c r="D112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>52</v>
+      </c>
+      <c r="D113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>52</v>
+      </c>
+      <c r="D114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115">
+        <v>51</v>
+      </c>
+      <c r="D115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>49</v>
+      </c>
+      <c r="D116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117">
+        <v>46</v>
+      </c>
+      <c r="D117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118">
+        <v>46</v>
+      </c>
+      <c r="D118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122">
+        <v>61</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>56</v>
+      </c>
+      <c r="D123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>37</v>
+      </c>
+      <c r="D127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>31</v>
+      </c>
+      <c r="D128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>65</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>19</v>
+      </c>
+      <c r="D136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>65</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" t="s">
+        <v>76</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>77</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>46</v>
+      </c>
+      <c r="D152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>77</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>77</v>
+      </c>
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>77</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>77</v>
+      </c>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>77</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>77</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>77</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>77</v>
+      </c>
+      <c r="B167" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>77</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>77</v>
+      </c>
+      <c r="B169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>77</v>
+      </c>
+      <c r="B170" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>77</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>77</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177" t="s">
+        <v>85</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>77</v>
+      </c>
+      <c r="B178" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>77</v>
+      </c>
+      <c r="B180" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>77</v>
+      </c>
+      <c r="B181" t="s">
+        <v>87</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>83</v>
+      </c>
+      <c r="D182" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>88</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>75</v>
+      </c>
+      <c r="D183" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>67</v>
+      </c>
+      <c r="D184" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>88</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>48</v>
+      </c>
+      <c r="D185" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>88</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186">
+        <v>37</v>
+      </c>
+      <c r="D186" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>88</v>
+      </c>
+      <c r="B187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>88</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>88</v>
+      </c>
+      <c r="B189" t="s">
+        <v>42</v>
+      </c>
+      <c r="C189">
+        <v>33</v>
+      </c>
+      <c r="D189" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>88</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <v>27</v>
+      </c>
+      <c r="D190" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>88</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>26</v>
+      </c>
+      <c r="D191" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>88</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>23</v>
+      </c>
+      <c r="D192" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>23</v>
+      </c>
+      <c r="D193" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>88</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>22</v>
+      </c>
+      <c r="D194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>88</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195">
+        <v>22</v>
+      </c>
+      <c r="D195" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>88</v>
+      </c>
+      <c r="B196" t="s">
+        <v>46</v>
+      </c>
+      <c r="C196">
+        <v>21</v>
+      </c>
+      <c r="D196" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>88</v>
+      </c>
+      <c r="B197" t="s">
+        <v>90</v>
+      </c>
+      <c r="C197">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>88</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>88</v>
+      </c>
+      <c r="B199" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>88</v>
+      </c>
+      <c r="B200" t="s">
+        <v>91</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>88</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>19</v>
+      </c>
+      <c r="D201" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>88</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>19</v>
+      </c>
+      <c r="D202" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>88</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>88</v>
+      </c>
+      <c r="B204" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>88</v>
+      </c>
+      <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>88</v>
+      </c>
+      <c r="B206" t="s">
+        <v>43</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>88</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>88</v>
+      </c>
+      <c r="B208" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>88</v>
+      </c>
+      <c r="B209" t="s">
+        <v>94</v>
+      </c>
+      <c r="C209">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>88</v>
+      </c>
+      <c r="B210" t="s">
+        <v>95</v>
+      </c>
+      <c r="C210">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>88</v>
+      </c>
+      <c r="B211" t="s">
+        <v>35</v>
+      </c>
+      <c r="C211">
+        <v>13</v>
+      </c>
+      <c r="D211" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>96</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>30</v>
+      </c>
+      <c r="D212" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>96</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213">
+        <v>25</v>
+      </c>
+      <c r="D213" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>96</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>23</v>
+      </c>
+      <c r="D214" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>96</v>
+      </c>
+      <c r="B215" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>96</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216">
+        <v>22</v>
+      </c>
+      <c r="D216" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>96</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>96</v>
+      </c>
+      <c r="B218" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218">
+        <v>20</v>
+      </c>
+      <c r="D218" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>96</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219">
+        <v>19</v>
+      </c>
+      <c r="D219" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>96</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>18</v>
+      </c>
+      <c r="D220" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>96</v>
+      </c>
+      <c r="B221" t="s">
+        <v>60</v>
+      </c>
+      <c r="C221">
+        <v>17</v>
+      </c>
+      <c r="D221" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>96</v>
+      </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>96</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>15</v>
+      </c>
+      <c r="D223" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>96</v>
+      </c>
+      <c r="B224" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>96</v>
+      </c>
+      <c r="B225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>96</v>
+      </c>
+      <c r="B226" t="s">
+        <v>42</v>
+      </c>
+      <c r="C226">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>96</v>
+      </c>
+      <c r="B227" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>96</v>
+      </c>
+      <c r="B228" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>96</v>
+      </c>
+      <c r="B229" t="s">
+        <v>24</v>
+      </c>
+      <c r="C229">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>96</v>
+      </c>
+      <c r="B230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>96</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>96</v>
+      </c>
+      <c r="B232" t="s">
+        <v>28</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>96</v>
+      </c>
+      <c r="B233" t="s">
+        <v>34</v>
+      </c>
+      <c r="C233">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>96</v>
+      </c>
+      <c r="B234" t="s">
+        <v>98</v>
+      </c>
+      <c r="C234">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>96</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>96</v>
+      </c>
+      <c r="B236" t="s">
+        <v>96</v>
+      </c>
+      <c r="C236">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>96</v>
+      </c>
+      <c r="B237" t="s">
+        <v>99</v>
+      </c>
+      <c r="C237">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238" t="s">
+        <v>100</v>
+      </c>
+      <c r="C238">
+        <v>9</v>
+      </c>
+      <c r="D238" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>96</v>
+      </c>
+      <c r="B239" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>96</v>
+      </c>
+      <c r="B240" t="s">
+        <v>101</v>
+      </c>
+      <c r="C240">
+        <v>9</v>
+      </c>
+      <c r="D240" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>96</v>
+      </c>
+      <c r="B241" t="s">
+        <v>102</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>103</v>
+      </c>
+      <c r="B242" t="s">
+        <v>58</v>
+      </c>
+      <c r="C242">
+        <v>354</v>
+      </c>
+      <c r="D242" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>103</v>
+      </c>
+      <c r="B243" t="s">
+        <v>104</v>
+      </c>
+      <c r="C243">
+        <v>162</v>
+      </c>
+      <c r="D243" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>103</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>92</v>
+      </c>
+      <c r="D244" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>103</v>
+      </c>
+      <c r="B245" t="s">
+        <v>105</v>
+      </c>
+      <c r="C245">
+        <v>84</v>
+      </c>
+      <c r="D245" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>103</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>67</v>
+      </c>
+      <c r="D246" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>103</v>
+      </c>
+      <c r="B247" t="s">
+        <v>106</v>
+      </c>
+      <c r="C247">
+        <v>66</v>
+      </c>
+      <c r="D247" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>103</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248">
+        <v>66</v>
+      </c>
+      <c r="D248" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>103</v>
+      </c>
+      <c r="B249" t="s">
+        <v>107</v>
+      </c>
+      <c r="C249">
+        <v>65</v>
+      </c>
+      <c r="D249" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>103</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250">
+        <v>61</v>
+      </c>
+      <c r="D250" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>103</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251">
+        <v>56</v>
+      </c>
+      <c r="D251" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>103</v>
+      </c>
+      <c r="B252" t="s">
+        <v>108</v>
+      </c>
+      <c r="C252">
+        <v>53</v>
+      </c>
+      <c r="D252" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>103</v>
+      </c>
+      <c r="B253" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253">
+        <v>52</v>
+      </c>
+      <c r="D253" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>103</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254">
+        <v>52</v>
+      </c>
+      <c r="D254" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>103</v>
+      </c>
+      <c r="B255" t="s">
+        <v>109</v>
+      </c>
+      <c r="C255">
+        <v>50</v>
+      </c>
+      <c r="D255" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>103</v>
+      </c>
+      <c r="B256" t="s">
+        <v>46</v>
+      </c>
+      <c r="C256">
+        <v>50</v>
+      </c>
+      <c r="D256" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>103</v>
+      </c>
+      <c r="B257" t="s">
+        <v>54</v>
+      </c>
+      <c r="C257">
+        <v>49</v>
+      </c>
+      <c r="D257" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>103</v>
+      </c>
+      <c r="B258" t="s">
+        <v>97</v>
+      </c>
+      <c r="C258">
+        <v>49</v>
+      </c>
+      <c r="D258" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>103</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259">
+        <v>46</v>
+      </c>
+      <c r="D259" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>103</v>
+      </c>
+      <c r="B260" t="s">
+        <v>110</v>
+      </c>
+      <c r="C260">
+        <v>44</v>
+      </c>
+      <c r="D260" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>103</v>
+      </c>
+      <c r="B261" t="s">
+        <v>95</v>
+      </c>
+      <c r="C261">
+        <v>42</v>
+      </c>
+      <c r="D261" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>103</v>
+      </c>
+      <c r="B262" t="s">
+        <v>111</v>
+      </c>
+      <c r="C262">
+        <v>41</v>
+      </c>
+      <c r="D262" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>103</v>
+      </c>
+      <c r="B263" t="s">
+        <v>112</v>
+      </c>
+      <c r="C263">
+        <v>40</v>
+      </c>
+      <c r="D263" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>103</v>
+      </c>
+      <c r="B264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264">
+        <v>35</v>
+      </c>
+      <c r="D264" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>103</v>
+      </c>
+      <c r="B265" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265">
+        <v>35</v>
+      </c>
+      <c r="D265" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>103</v>
+      </c>
+      <c r="B266" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266">
+        <v>34</v>
+      </c>
+      <c r="D266" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>103</v>
+      </c>
+      <c r="B267" t="s">
+        <v>113</v>
+      </c>
+      <c r="C267">
+        <v>34</v>
+      </c>
+      <c r="D267" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>103</v>
+      </c>
+      <c r="B268" t="s">
+        <v>114</v>
+      </c>
+      <c r="C268">
+        <v>34</v>
+      </c>
+      <c r="D268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>103</v>
+      </c>
+      <c r="B269" t="s">
+        <v>115</v>
+      </c>
+      <c r="C269">
+        <v>33</v>
+      </c>
+      <c r="D269" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>103</v>
+      </c>
+      <c r="B270" t="s">
+        <v>116</v>
+      </c>
+      <c r="C270">
+        <v>33</v>
+      </c>
+      <c r="D270" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>103</v>
+      </c>
+      <c r="B271" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271">
+        <v>32</v>
+      </c>
+      <c r="D271" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>117</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>47</v>
+      </c>
+      <c r="D272" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>117</v>
+      </c>
+      <c r="B273" t="s">
+        <v>30</v>
+      </c>
+      <c r="C273">
+        <v>36</v>
+      </c>
+      <c r="D273" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>117</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>36</v>
+      </c>
+      <c r="D274" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>117</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>33</v>
+      </c>
+      <c r="D275" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>117</v>
+      </c>
+      <c r="B276" t="s">
+        <v>42</v>
+      </c>
+      <c r="C276">
+        <v>31</v>
+      </c>
+      <c r="D276" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>117</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277">
+        <v>29</v>
+      </c>
+      <c r="D277" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>117</v>
+      </c>
+      <c r="B278" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278">
+        <v>24</v>
+      </c>
+      <c r="D278" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>117</v>
+      </c>
+      <c r="B279" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279">
+        <v>24</v>
+      </c>
+      <c r="D279" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>117</v>
+      </c>
+      <c r="B280" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280">
+        <v>24</v>
+      </c>
+      <c r="D280" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>117</v>
+      </c>
+      <c r="B281" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281">
+        <v>23</v>
+      </c>
+      <c r="D281" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
+        <v>117</v>
+      </c>
+      <c r="B282" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282">
+        <v>23</v>
+      </c>
+      <c r="D282" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>117</v>
+      </c>
+      <c r="B283" t="s">
+        <v>21</v>
+      </c>
+      <c r="C283">
+        <v>21</v>
+      </c>
+      <c r="D283" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" t="s">
+        <v>117</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284">
+        <v>21</v>
+      </c>
+      <c r="D284" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" t="s">
+        <v>117</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285">
+        <v>21</v>
+      </c>
+      <c r="D285" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" t="s">
+        <v>117</v>
+      </c>
+      <c r="B286" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286">
+        <v>18</v>
+      </c>
+      <c r="D286" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" t="s">
+        <v>117</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287">
+        <v>17</v>
+      </c>
+      <c r="D287" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" t="s">
+        <v>117</v>
+      </c>
+      <c r="B288" t="s">
+        <v>24</v>
+      </c>
+      <c r="C288">
+        <v>17</v>
+      </c>
+      <c r="D288" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
+        <v>117</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289">
+        <v>16</v>
+      </c>
+      <c r="D289" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>117</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290">
+        <v>16</v>
+      </c>
+      <c r="D290" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>117</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>16</v>
+      </c>
+      <c r="D291" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>117</v>
+      </c>
+      <c r="B292" t="s">
+        <v>60</v>
+      </c>
+      <c r="C292">
+        <v>15</v>
+      </c>
+      <c r="D292" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>117</v>
+      </c>
+      <c r="B293" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>117</v>
+      </c>
+      <c r="B294" t="s">
+        <v>34</v>
+      </c>
+      <c r="C294">
+        <v>14</v>
+      </c>
+      <c r="D294" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
+        <v>117</v>
+      </c>
+      <c r="B295" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295">
+        <v>14</v>
+      </c>
+      <c r="D295" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>117</v>
+      </c>
+      <c r="B296" t="s">
+        <v>118</v>
+      </c>
+      <c r="C296">
+        <v>13</v>
+      </c>
+      <c r="D296" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>117</v>
+      </c>
+      <c r="B297" t="s">
+        <v>35</v>
+      </c>
+      <c r="C297">
+        <v>13</v>
+      </c>
+      <c r="D297" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>117</v>
+      </c>
+      <c r="B298" t="s">
+        <v>119</v>
+      </c>
+      <c r="C298">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>117</v>
+      </c>
+      <c r="B299" t="s">
+        <v>120</v>
+      </c>
+      <c r="C299">
+        <v>13</v>
+      </c>
+      <c r="D299" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
+        <v>117</v>
+      </c>
+      <c r="B300" t="s">
+        <v>46</v>
+      </c>
+      <c r="C300">
+        <v>13</v>
+      </c>
+      <c r="D300" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>117</v>
+      </c>
+      <c r="B301" t="s">
+        <v>121</v>
+      </c>
+      <c r="C301">
+        <v>13</v>
+      </c>
+      <c r="D301" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>122</v>
+      </c>
+      <c r="B302" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302">
+        <v>80</v>
+      </c>
+      <c r="D302" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>122</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303">
+        <v>77</v>
+      </c>
+      <c r="D303" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>122</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>65</v>
+      </c>
+      <c r="D304" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>122</v>
+      </c>
+      <c r="B305" t="s">
+        <v>53</v>
+      </c>
+      <c r="C305">
+        <v>56</v>
+      </c>
+      <c r="D305" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>122</v>
+      </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306">
+        <v>52</v>
+      </c>
+      <c r="D306" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>122</v>
+      </c>
+      <c r="B307" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307">
+        <v>50</v>
+      </c>
+      <c r="D307" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>122</v>
+      </c>
+      <c r="B308" t="s">
+        <v>45</v>
+      </c>
+      <c r="C308">
+        <v>39</v>
+      </c>
+      <c r="D308" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>122</v>
+      </c>
+      <c r="B309" t="s">
+        <v>84</v>
+      </c>
+      <c r="C309">
+        <v>37</v>
+      </c>
+      <c r="D309" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>122</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>37</v>
+      </c>
+      <c r="D310" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>122</v>
+      </c>
+      <c r="B311" t="s">
+        <v>46</v>
+      </c>
+      <c r="C311">
+        <v>37</v>
+      </c>
+      <c r="D311" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>122</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>36</v>
+      </c>
+      <c r="D312" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>122</v>
+      </c>
+      <c r="B313" t="s">
+        <v>123</v>
+      </c>
+      <c r="C313">
+        <v>35</v>
+      </c>
+      <c r="D313" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>122</v>
+      </c>
+      <c r="B314" t="s">
+        <v>14</v>
+      </c>
+      <c r="C314">
+        <v>35</v>
+      </c>
+      <c r="D314" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>122</v>
+      </c>
+      <c r="B315" t="s">
+        <v>124</v>
+      </c>
+      <c r="C315">
+        <v>33</v>
+      </c>
+      <c r="D315" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>122</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>32</v>
+      </c>
+      <c r="D316" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>122</v>
+      </c>
+      <c r="B317" t="s">
+        <v>108</v>
+      </c>
+      <c r="C317">
+        <v>32</v>
+      </c>
+      <c r="D317" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>122</v>
+      </c>
+      <c r="B318" t="s">
+        <v>30</v>
+      </c>
+      <c r="C318">
+        <v>31</v>
+      </c>
+      <c r="D318" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>122</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>122</v>
+      </c>
+      <c r="B320" t="s">
+        <v>125</v>
+      </c>
+      <c r="C320">
+        <v>30</v>
+      </c>
+      <c r="D320" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>122</v>
+      </c>
+      <c r="B321" t="s">
+        <v>100</v>
+      </c>
+      <c r="C321">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>122</v>
+      </c>
+      <c r="B322" t="s">
+        <v>68</v>
+      </c>
+      <c r="C322">
+        <v>26</v>
+      </c>
+      <c r="D322" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>122</v>
+      </c>
+      <c r="B323" t="s">
+        <v>24</v>
+      </c>
+      <c r="C323">
+        <v>26</v>
+      </c>
+      <c r="D323" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>122</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324">
+        <v>26</v>
+      </c>
+      <c r="D324" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>122</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>122</v>
+      </c>
+      <c r="B326" t="s">
+        <v>99</v>
+      </c>
+      <c r="C326">
+        <v>25</v>
+      </c>
+      <c r="D326" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>122</v>
+      </c>
+      <c r="B327" t="s">
+        <v>19</v>
+      </c>
+      <c r="C327">
+        <v>25</v>
+      </c>
+      <c r="D327" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>122</v>
+      </c>
+      <c r="B328" t="s">
+        <v>126</v>
+      </c>
+      <c r="C328">
+        <v>24</v>
+      </c>
+      <c r="D328" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>122</v>
+      </c>
+      <c r="B329" t="s">
+        <v>127</v>
+      </c>
+      <c r="C329">
+        <v>23</v>
+      </c>
+      <c r="D329" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>122</v>
+      </c>
+      <c r="B330" t="s">
+        <v>67</v>
+      </c>
+      <c r="C330">
+        <v>23</v>
+      </c>
+      <c r="D330" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>122</v>
+      </c>
+      <c r="B331" t="s">
+        <v>128</v>
+      </c>
+      <c r="C331">
+        <v>22</v>
+      </c>
+      <c r="D331" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>129</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>54</v>
+      </c>
+      <c r="D332" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>129</v>
+      </c>
+      <c r="B333" t="s">
+        <v>16</v>
+      </c>
+      <c r="C333">
+        <v>48</v>
+      </c>
+      <c r="D333" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>129</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334">
+        <v>42</v>
+      </c>
+      <c r="D334" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>129</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <v>41</v>
+      </c>
+      <c r="D335" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>129</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336">
+        <v>35</v>
+      </c>
+      <c r="D336" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>129</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337">
+        <v>32</v>
+      </c>
+      <c r="D337" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>129</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>29</v>
+      </c>
+      <c r="D338" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>129</v>
+      </c>
+      <c r="B339" t="s">
+        <v>32</v>
+      </c>
+      <c r="C339">
+        <v>26</v>
+      </c>
+      <c r="D339" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>129</v>
+      </c>
+      <c r="B340" t="s">
+        <v>129</v>
+      </c>
+      <c r="C340">
+        <v>25</v>
+      </c>
+      <c r="D340" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>129</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>24</v>
+      </c>
+      <c r="D341" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
+        <v>129</v>
+      </c>
+      <c r="B342" t="s">
+        <v>28</v>
+      </c>
+      <c r="C342">
+        <v>24</v>
+      </c>
+      <c r="D342" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>129</v>
+      </c>
+      <c r="B343" t="s">
+        <v>62</v>
+      </c>
+      <c r="C343">
+        <v>23</v>
+      </c>
+      <c r="D343" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
+        <v>129</v>
+      </c>
+      <c r="B344" t="s">
+        <v>60</v>
+      </c>
+      <c r="C344">
+        <v>22</v>
+      </c>
+      <c r="D344" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>129</v>
+      </c>
+      <c r="B345" t="s">
+        <v>18</v>
+      </c>
+      <c r="C345">
+        <v>20</v>
+      </c>
+      <c r="D345" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>129</v>
+      </c>
+      <c r="B346" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346">
+        <v>20</v>
+      </c>
+      <c r="D346" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>129</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347">
+        <v>20</v>
+      </c>
+      <c r="D347" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>129</v>
+      </c>
+      <c r="B348" t="s">
+        <v>130</v>
+      </c>
+      <c r="C348">
+        <v>16</v>
+      </c>
+      <c r="D348" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>129</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349">
+        <v>16</v>
+      </c>
+      <c r="D349" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>129</v>
+      </c>
+      <c r="B350" t="s">
+        <v>29</v>
+      </c>
+      <c r="C350">
+        <v>16</v>
+      </c>
+      <c r="D350" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>129</v>
+      </c>
+      <c r="B351" t="s">
+        <v>97</v>
+      </c>
+      <c r="C351">
+        <v>15</v>
+      </c>
+      <c r="D351" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>129</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>15</v>
+      </c>
+      <c r="D352" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>129</v>
+      </c>
+      <c r="B353" t="s">
+        <v>35</v>
+      </c>
+      <c r="C353">
+        <v>14</v>
+      </c>
+      <c r="D353" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>129</v>
+      </c>
+      <c r="B354" t="s">
+        <v>131</v>
+      </c>
+      <c r="C354">
+        <v>14</v>
+      </c>
+      <c r="D354" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>129</v>
+      </c>
+      <c r="B355" t="s">
+        <v>132</v>
+      </c>
+      <c r="C355">
+        <v>13</v>
+      </c>
+      <c r="D355" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>129</v>
+      </c>
+      <c r="B356" t="s">
+        <v>37</v>
+      </c>
+      <c r="C356">
+        <v>12</v>
+      </c>
+      <c r="D356" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>129</v>
+      </c>
+      <c r="B357" t="s">
+        <v>133</v>
+      </c>
+      <c r="C357">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>129</v>
+      </c>
+      <c r="B358" t="s">
+        <v>36</v>
+      </c>
+      <c r="C358">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>129</v>
+      </c>
+      <c r="B359" t="s">
+        <v>134</v>
+      </c>
+      <c r="C359">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>129</v>
+      </c>
+      <c r="B360" t="s">
+        <v>135</v>
+      </c>
+      <c r="C360">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>129</v>
+      </c>
+      <c r="B361" t="s">
+        <v>100</v>
+      </c>
+      <c r="C361">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>136</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2</v>
+      </c>
+      <c r="C362">
+        <v>30</v>
+      </c>
+      <c r="D362" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>136</v>
+      </c>
+      <c r="B363" t="s">
+        <v>32</v>
+      </c>
+      <c r="C363">
+        <v>24</v>
+      </c>
+      <c r="D363" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>136</v>
+      </c>
+      <c r="B364" t="s">
+        <v>46</v>
+      </c>
+      <c r="C364">
+        <v>22</v>
+      </c>
+      <c r="D364" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>136</v>
+      </c>
+      <c r="B365" t="s">
+        <v>53</v>
+      </c>
+      <c r="C365">
+        <v>20</v>
+      </c>
+      <c r="D365" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>136</v>
+      </c>
+      <c r="B366" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366">
+        <v>20</v>
+      </c>
+      <c r="D366" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>136</v>
+      </c>
+      <c r="B367" t="s">
+        <v>137</v>
+      </c>
+      <c r="C367">
+        <v>17</v>
+      </c>
+      <c r="D367" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>136</v>
+      </c>
+      <c r="B368" t="s">
+        <v>138</v>
+      </c>
+      <c r="C368">
+        <v>17</v>
+      </c>
+      <c r="D368" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>136</v>
+      </c>
+      <c r="B369" t="s">
+        <v>139</v>
+      </c>
+      <c r="C369">
+        <v>16</v>
+      </c>
+      <c r="D369" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
+        <v>136</v>
+      </c>
+      <c r="B370" t="s">
+        <v>140</v>
+      </c>
+      <c r="C370">
+        <v>16</v>
+      </c>
+      <c r="D370" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>136</v>
+      </c>
+      <c r="B371" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371">
+        <v>16</v>
+      </c>
+      <c r="D371" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>136</v>
+      </c>
+      <c r="B372" t="s">
+        <v>18</v>
+      </c>
+      <c r="C372">
+        <v>15</v>
+      </c>
+      <c r="D372" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>136</v>
+      </c>
+      <c r="B373" t="s">
+        <v>27</v>
+      </c>
+      <c r="C373">
+        <v>15</v>
+      </c>
+      <c r="D373" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>136</v>
+      </c>
+      <c r="B374" t="s">
+        <v>141</v>
+      </c>
+      <c r="C374">
+        <v>14</v>
+      </c>
+      <c r="D374" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>136</v>
+      </c>
+      <c r="B375" t="s">
+        <v>63</v>
+      </c>
+      <c r="C375">
+        <v>13</v>
+      </c>
+      <c r="D375" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>136</v>
+      </c>
+      <c r="B376" t="s">
+        <v>142</v>
+      </c>
+      <c r="C376">
+        <v>13</v>
+      </c>
+      <c r="D376" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>136</v>
+      </c>
+      <c r="B377" t="s">
+        <v>143</v>
+      </c>
+      <c r="C377">
+        <v>13</v>
+      </c>
+      <c r="D377" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>136</v>
+      </c>
+      <c r="B378" t="s">
+        <v>144</v>
+      </c>
+      <c r="C378">
+        <v>12</v>
+      </c>
+      <c r="D378" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>136</v>
+      </c>
+      <c r="B379" t="s">
+        <v>87</v>
+      </c>
+      <c r="C379">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>136</v>
+      </c>
+      <c r="B380" t="s">
+        <v>145</v>
+      </c>
+      <c r="C380">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>136</v>
+      </c>
+      <c r="B381" t="s">
+        <v>146</v>
+      </c>
+      <c r="C381">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A382" t="s">
+        <v>136</v>
+      </c>
+      <c r="B382" t="s">
+        <v>147</v>
+      </c>
+      <c r="C382">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A383" t="s">
+        <v>136</v>
+      </c>
+      <c r="B383" t="s">
+        <v>54</v>
+      </c>
+      <c r="C383">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A384" t="s">
+        <v>136</v>
+      </c>
+      <c r="B384" t="s">
+        <v>148</v>
+      </c>
+      <c r="C384">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A385" t="s">
+        <v>136</v>
+      </c>
+      <c r="B385" t="s">
+        <v>92</v>
+      </c>
+      <c r="C385">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A386" t="s">
+        <v>136</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A387" t="s">
+        <v>136</v>
+      </c>
+      <c r="B387" t="s">
+        <v>149</v>
+      </c>
+      <c r="C387">
+        <v>10</v>
+      </c>
+      <c r="D387" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A388" t="s">
+        <v>136</v>
+      </c>
+      <c r="B388" t="s">
+        <v>82</v>
+      </c>
+      <c r="C388">
+        <v>10</v>
+      </c>
+      <c r="D388" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A389" t="s">
+        <v>136</v>
+      </c>
+      <c r="B389" t="s">
+        <v>150</v>
+      </c>
+      <c r="C389">
+        <v>10</v>
+      </c>
+      <c r="D389" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A390" t="s">
+        <v>136</v>
+      </c>
+      <c r="B390" t="s">
+        <v>28</v>
+      </c>
+      <c r="C390">
+        <v>10</v>
+      </c>
+      <c r="D390" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A391" t="s">
+        <v>136</v>
+      </c>
+      <c r="B391" t="s">
+        <v>97</v>
+      </c>
+      <c r="C391">
+        <v>10</v>
+      </c>
+      <c r="D391" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A392" t="s">
+        <v>151</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2</v>
+      </c>
+      <c r="C392">
+        <v>81</v>
+      </c>
+      <c r="D392" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A393" t="s">
+        <v>151</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393">
+        <v>41</v>
+      </c>
+      <c r="D393" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A394" t="s">
+        <v>151</v>
+      </c>
+      <c r="B394" t="s">
+        <v>60</v>
+      </c>
+      <c r="C394">
+        <v>37</v>
+      </c>
+      <c r="D394" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A395" t="s">
+        <v>151</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395">
+        <v>31</v>
+      </c>
+      <c r="D395" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A396" t="s">
+        <v>151</v>
+      </c>
+      <c r="B396" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396">
+        <v>30</v>
+      </c>
+      <c r="D396" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A397" t="s">
+        <v>151</v>
+      </c>
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397">
+        <v>29</v>
+      </c>
+      <c r="D397" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A398" t="s">
+        <v>151</v>
+      </c>
+      <c r="B398" t="s">
+        <v>78</v>
+      </c>
+      <c r="C398">
+        <v>27</v>
+      </c>
+      <c r="D398" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A399" t="s">
+        <v>151</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399">
+        <v>26</v>
+      </c>
+      <c r="D399" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A400" t="s">
+        <v>151</v>
+      </c>
+      <c r="B400" t="s">
+        <v>18</v>
+      </c>
+      <c r="C400">
+        <v>25</v>
+      </c>
+      <c r="D400" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A401" t="s">
+        <v>151</v>
+      </c>
+      <c r="B401" t="s">
+        <v>152</v>
+      </c>
+      <c r="C401">
+        <v>25</v>
+      </c>
+      <c r="D401" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A402" t="s">
+        <v>151</v>
+      </c>
+      <c r="B402" t="s">
+        <v>99</v>
+      </c>
+      <c r="C402">
+        <v>24</v>
+      </c>
+      <c r="D402" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A403" t="s">
+        <v>151</v>
+      </c>
+      <c r="B403" t="s">
+        <v>23</v>
+      </c>
+      <c r="C403">
+        <v>23</v>
+      </c>
+      <c r="D403" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A404" t="s">
+        <v>151</v>
+      </c>
+      <c r="B404" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404">
+        <v>22</v>
+      </c>
+      <c r="D404" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A405" t="s">
+        <v>151</v>
+      </c>
+      <c r="B405" t="s">
+        <v>132</v>
+      </c>
+      <c r="C405">
+        <v>22</v>
+      </c>
+      <c r="D405" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A406" t="s">
+        <v>151</v>
+      </c>
+      <c r="B406" t="s">
+        <v>153</v>
+      </c>
+      <c r="C406">
+        <v>20</v>
+      </c>
+      <c r="D406" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A407" t="s">
+        <v>151</v>
+      </c>
+      <c r="B407" t="s">
+        <v>36</v>
+      </c>
+      <c r="C407">
+        <v>18</v>
+      </c>
+      <c r="D407" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A408" t="s">
+        <v>151</v>
+      </c>
+      <c r="B408" t="s">
+        <v>67</v>
+      </c>
+      <c r="C408">
+        <v>18</v>
+      </c>
+      <c r="D408" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A409" t="s">
+        <v>151</v>
+      </c>
+      <c r="B409" t="s">
+        <v>123</v>
+      </c>
+      <c r="C409">
+        <v>17</v>
+      </c>
+      <c r="D409" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A410" t="s">
+        <v>151</v>
+      </c>
+      <c r="B410" t="s">
+        <v>154</v>
+      </c>
+      <c r="C410">
+        <v>16</v>
+      </c>
+      <c r="D410" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A411" t="s">
+        <v>151</v>
+      </c>
+      <c r="B411" t="s">
+        <v>16</v>
+      </c>
+      <c r="C411">
+        <v>16</v>
+      </c>
+      <c r="D411" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A412" t="s">
+        <v>151</v>
+      </c>
+      <c r="B412" t="s">
+        <v>155</v>
+      </c>
+      <c r="C412">
+        <v>15</v>
+      </c>
+      <c r="D412" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A413" t="s">
+        <v>151</v>
+      </c>
+      <c r="B413" t="s">
+        <v>92</v>
+      </c>
+      <c r="C413">
+        <v>15</v>
+      </c>
+      <c r="D413" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A414" t="s">
+        <v>151</v>
+      </c>
+      <c r="B414" t="s">
+        <v>86</v>
+      </c>
+      <c r="C414">
+        <v>15</v>
+      </c>
+      <c r="D414" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A415" t="s">
+        <v>151</v>
+      </c>
+      <c r="B415" t="s">
+        <v>156</v>
+      </c>
+      <c r="C415">
+        <v>15</v>
+      </c>
+      <c r="D415" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A416" t="s">
+        <v>151</v>
+      </c>
+      <c r="B416" t="s">
+        <v>94</v>
+      </c>
+      <c r="C416">
+        <v>15</v>
+      </c>
+      <c r="D416" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A417" t="s">
+        <v>151</v>
+      </c>
+      <c r="B417" t="s">
+        <v>43</v>
+      </c>
+      <c r="C417">
+        <v>13</v>
+      </c>
+      <c r="D417" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A418" t="s">
+        <v>151</v>
+      </c>
+      <c r="B418" t="s">
+        <v>15</v>
+      </c>
+      <c r="C418">
+        <v>13</v>
+      </c>
+      <c r="D418" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A419" t="s">
+        <v>151</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>13</v>
+      </c>
+      <c r="D419" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A420" t="s">
+        <v>151</v>
+      </c>
+      <c r="B420" t="s">
+        <v>157</v>
+      </c>
+      <c r="C420">
+        <v>12</v>
+      </c>
+      <c r="D420" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A421" t="s">
+        <v>151</v>
+      </c>
+      <c r="B421" t="s">
+        <v>158</v>
+      </c>
+      <c r="C421">
+        <v>12</v>
+      </c>
+      <c r="D421" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>